--- a/xtt_demo/ZXXT_DEMO_130_B_T.XLSX
+++ b/xtt_demo/ZXXT_DEMO_130_B_T.XLSX
@@ -66,7 +66,7 @@
 Covert result to double</t>
   </si>
   <si>
-    <t>№</t>
+    <t>Pos.</t>
   </si>
   <si>
     <t>{R-T;cond=sy-tabix;type=integer}</t>

--- a/xtt_demo/ZXXT_DEMO_130_B_T.XLSX
+++ b/xtt_demo/ZXXT_DEMO_130_B_T.XLSX
@@ -66,7 +66,7 @@
 Covert result to double</t>
   </si>
   <si>
-    <t>Pos.</t>
+    <t>№</t>
   </si>
   <si>
     <t>{R-T;cond=sy-tabix;type=integer}</t>
